--- a/spreadsheets/new/GSE126836.0.xlsx
+++ b/spreadsheets/new/GSE126836.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D526029-3C30-DF4A-B4B5-60353514DD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="19540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1168">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3523,13 +3529,16 @@
   </si>
   <si>
     <t>Substantia nigra</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3566,6 +3575,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3612,7 +3629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3644,9 +3661,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3678,6 +3713,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3853,75 +3906,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +4149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4279,7 +4328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4437,7 +4486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4616,12 +4665,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4641,7 +4690,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4661,7 +4710,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -4681,7 +4730,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -4701,7 +4750,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -4721,7 +4770,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -4741,7 +4790,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -4761,7 +4810,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>235</v>
       </c>
@@ -4781,7 +4830,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -4801,7 +4850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -4821,7 +4870,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>246</v>
       </c>
@@ -4841,7 +4890,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -4861,7 +4910,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -4881,7 +4930,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -4901,7 +4950,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -4921,7 +4970,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -4941,7 +4990,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -4961,7 +5010,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -4981,7 +5030,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -5001,7 +5050,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -5021,7 +5070,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>282</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -5061,7 +5110,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -5081,7 +5130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -5101,7 +5150,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -5121,7 +5170,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>300</v>
       </c>
@@ -5141,7 +5190,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>303</v>
       </c>
@@ -5161,7 +5210,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>306</v>
       </c>
@@ -5181,7 +5230,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -5201,7 +5250,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>314</v>
       </c>
@@ -5221,7 +5270,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>317</v>
       </c>
@@ -5241,7 +5290,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -5261,7 +5310,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -5281,7 +5330,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>326</v>
       </c>
@@ -5301,7 +5350,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -5321,7 +5370,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>333</v>
       </c>
@@ -5341,7 +5390,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>336</v>
       </c>
@@ -5361,7 +5410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>340</v>
       </c>
@@ -5381,7 +5430,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -5401,7 +5450,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>346</v>
       </c>
@@ -5421,7 +5470,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>350</v>
       </c>
@@ -5441,7 +5490,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>353</v>
       </c>
@@ -5461,7 +5510,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>356</v>
       </c>
@@ -5481,7 +5530,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>360</v>
       </c>
@@ -5501,7 +5550,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -5521,7 +5570,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>366</v>
       </c>
@@ -5541,7 +5590,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>370</v>
       </c>
@@ -5561,7 +5610,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>373</v>
       </c>
@@ -5581,7 +5630,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -5601,7 +5650,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>380</v>
       </c>
@@ -5627,93 +5676,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>383</v>
       </c>
@@ -5946,7 +5993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6179,7 +6226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6394,7 +6441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -6627,12 +6674,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>548</v>
       </c>
@@ -6649,7 +6696,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>552</v>
       </c>
@@ -6666,7 +6713,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>553</v>
       </c>
@@ -6683,7 +6730,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>554</v>
       </c>
@@ -6700,7 +6747,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>555</v>
       </c>
@@ -6717,7 +6764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>556</v>
       </c>
@@ -6734,7 +6781,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>557</v>
       </c>
@@ -6751,7 +6798,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>558</v>
       </c>
@@ -6768,7 +6815,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>560</v>
       </c>
@@ -6785,7 +6832,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>561</v>
       </c>
@@ -6802,7 +6849,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>562</v>
       </c>
@@ -6819,7 +6866,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>563</v>
       </c>
@@ -6836,7 +6883,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>564</v>
       </c>
@@ -6853,7 +6900,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>565</v>
       </c>
@@ -6870,7 +6917,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>566</v>
       </c>
@@ -6887,7 +6934,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>567</v>
       </c>
@@ -6901,7 +6948,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>569</v>
       </c>
@@ -6915,7 +6962,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>570</v>
       </c>
@@ -6929,7 +6976,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>571</v>
       </c>
@@ -6943,7 +6990,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>572</v>
       </c>
@@ -6957,7 +7004,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>573</v>
       </c>
@@ -6971,7 +7018,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>574</v>
       </c>
@@ -6991,67 +7038,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="377.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="377.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>575</v>
       </c>
@@ -7206,7 +7251,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7361,7 +7406,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7510,7 +7555,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>676</v>
       </c>
@@ -7665,12 +7710,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>727</v>
       </c>
@@ -7687,25 +7732,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1272.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3335.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1272.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3335.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>730</v>
       </c>
@@ -7734,7 +7778,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>739</v>
       </c>
@@ -7763,7 +7807,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>748</v>
       </c>
@@ -7792,7 +7836,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>757</v>
       </c>
@@ -7821,12 +7865,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>766</v>
       </c>
@@ -7852,28 +7896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>772</v>
       </c>
@@ -7911,7 +7955,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>784</v>
       </c>
@@ -7949,7 +7993,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>794</v>
       </c>
@@ -7987,7 +8031,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -8025,12 +8069,12 @@
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>817</v>
       </c>
@@ -8053,21 +8097,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>822</v>
       </c>
@@ -8084,7 +8128,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>826</v>
       </c>
@@ -8101,7 +8145,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>831</v>
       </c>
@@ -8118,7 +8162,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>836</v>
       </c>
@@ -8135,12 +8179,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>841</v>
       </c>
@@ -8151,46 +8195,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>842</v>
       </c>
@@ -8282,7 +8324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>854</v>
       </c>
@@ -8374,7 +8416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>863</v>
       </c>
@@ -8454,7 +8496,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>873</v>
       </c>
@@ -8546,12 +8588,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>885</v>
       </c>
@@ -8574,7 +8616,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>890</v>
       </c>
@@ -8597,7 +8639,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>892</v>
       </c>
@@ -8620,7 +8662,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>894</v>
       </c>
@@ -8643,7 +8685,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>896</v>
       </c>
@@ -8666,7 +8708,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>898</v>
       </c>
@@ -8689,7 +8731,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>900</v>
       </c>
@@ -8712,7 +8754,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>902</v>
       </c>
@@ -8735,7 +8777,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>904</v>
       </c>
@@ -8758,7 +8800,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>906</v>
       </c>
@@ -8781,7 +8823,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>908</v>
       </c>
@@ -8804,7 +8846,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -8827,7 +8869,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>912</v>
       </c>
@@ -8850,7 +8892,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>914</v>
       </c>
@@ -8873,7 +8915,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>916</v>
       </c>
@@ -8896,7 +8938,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>918</v>
       </c>
@@ -8919,7 +8961,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>920</v>
       </c>
@@ -8942,7 +8984,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>922</v>
       </c>
@@ -8965,7 +9007,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>924</v>
       </c>
@@ -8988,7 +9030,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>926</v>
       </c>
@@ -9011,7 +9053,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>928</v>
       </c>
@@ -9034,7 +9076,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>930</v>
       </c>
@@ -9057,7 +9099,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>932</v>
       </c>
@@ -9080,7 +9122,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>934</v>
       </c>
@@ -9103,7 +9145,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>936</v>
       </c>
@@ -9126,7 +9168,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>938</v>
       </c>
@@ -9149,7 +9191,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>940</v>
       </c>
@@ -9172,7 +9214,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>942</v>
       </c>
@@ -9195,7 +9237,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>944</v>
       </c>
@@ -9218,7 +9260,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>946</v>
       </c>
@@ -9241,7 +9283,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>948</v>
       </c>
@@ -9264,7 +9306,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>949</v>
       </c>
@@ -9287,7 +9329,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>951</v>
       </c>
@@ -9310,7 +9352,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>952</v>
       </c>
@@ -9333,7 +9375,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>954</v>
       </c>
@@ -9356,7 +9398,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>955</v>
       </c>
@@ -9379,7 +9421,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>957</v>
       </c>
@@ -9402,7 +9444,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>958</v>
       </c>
@@ -9425,7 +9467,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>960</v>
       </c>
@@ -9448,7 +9490,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>961</v>
       </c>
@@ -9471,7 +9513,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>963</v>
       </c>
@@ -9494,7 +9536,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>964</v>
       </c>
@@ -9517,7 +9559,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>966</v>
       </c>
@@ -9540,7 +9582,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>967</v>
       </c>
@@ -9563,7 +9605,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>969</v>
       </c>
@@ -9586,7 +9628,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>970</v>
       </c>
@@ -9609,7 +9651,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>972</v>
       </c>
@@ -9632,7 +9674,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>973</v>
       </c>
@@ -9655,7 +9697,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>975</v>
       </c>
@@ -9678,7 +9720,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>976</v>
       </c>
@@ -9701,7 +9743,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>978</v>
       </c>
@@ -9724,7 +9766,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>979</v>
       </c>
@@ -9747,7 +9789,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>981</v>
       </c>
@@ -9770,7 +9812,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>982</v>
       </c>
@@ -9793,7 +9835,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>984</v>
       </c>
@@ -9816,7 +9858,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>985</v>
       </c>
@@ -9839,7 +9881,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>987</v>
       </c>
@@ -9862,7 +9904,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>988</v>
       </c>
@@ -9885,7 +9927,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>990</v>
       </c>
@@ -9908,7 +9950,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>991</v>
       </c>
@@ -9931,7 +9973,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>993</v>
       </c>
@@ -9954,7 +9996,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>994</v>
       </c>
@@ -9977,7 +10019,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>996</v>
       </c>
@@ -10000,7 +10042,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>997</v>
       </c>
@@ -10023,7 +10065,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>999</v>
       </c>
@@ -10046,7 +10088,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1000</v>
       </c>
@@ -10069,7 +10111,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1002</v>
       </c>
@@ -10092,7 +10134,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1003</v>
       </c>
@@ -10115,7 +10157,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1005</v>
       </c>
@@ -10138,7 +10180,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1006</v>
       </c>
@@ -10161,7 +10203,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1008</v>
       </c>
@@ -10184,7 +10226,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1009</v>
       </c>
@@ -10207,7 +10249,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1011</v>
       </c>
@@ -10236,34 +10278,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="377.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="377.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>853</v>
       </c>
@@ -10319,7 +10363,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -10375,7 +10419,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -10425,7 +10469,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>884</v>
       </c>
@@ -10481,12 +10525,12 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>889</v>
       </c>
@@ -10495,6 +10539,9 @@
       </c>
       <c r="G6" t="s">
         <v>1058</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -10503,76 +10550,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -10754,7 +10798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -10936,7 +10980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -11097,7 +11141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -11279,12 +11323,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -11301,7 +11345,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -11318,7 +11362,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -11335,7 +11379,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -11352,7 +11396,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -11369,7 +11413,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -11386,7 +11430,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -11403,7 +11447,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -11420,7 +11464,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -11437,7 +11481,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -11454,7 +11498,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -11471,7 +11515,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -11488,7 +11532,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -11505,7 +11549,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -11522,7 +11566,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -11539,7 +11583,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -11556,7 +11600,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -11573,7 +11617,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>273</v>
       </c>
@@ -11590,7 +11634,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -11607,7 +11651,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -11624,7 +11668,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -11641,7 +11685,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -11658,7 +11702,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>292</v>
       </c>
@@ -11675,7 +11719,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>295</v>
       </c>
@@ -11692,7 +11736,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>299</v>
       </c>
@@ -11709,7 +11753,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>302</v>
       </c>
@@ -11726,7 +11770,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>305</v>
       </c>
@@ -11743,7 +11787,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11760,7 +11804,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -11777,7 +11821,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -11794,7 +11838,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>319</v>
       </c>
@@ -11811,7 +11855,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -11828,7 +11872,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>325</v>
       </c>
@@ -11845,7 +11889,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -11862,7 +11906,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>332</v>
       </c>
@@ -11879,7 +11923,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>335</v>
       </c>
@@ -11896,7 +11940,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>339</v>
       </c>
@@ -11913,7 +11957,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -11930,7 +11974,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>345</v>
       </c>
@@ -11947,7 +11991,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -11964,7 +12008,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -11981,7 +12025,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>355</v>
       </c>
@@ -11998,7 +12042,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>359</v>
       </c>
@@ -12015,7 +12059,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>362</v>
       </c>
@@ -12032,7 +12076,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>365</v>
       </c>
@@ -12049,7 +12093,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>369</v>
       </c>
@@ -12066,7 +12110,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -12083,7 +12127,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>376</v>
       </c>
@@ -12100,7 +12144,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>379</v>
       </c>
@@ -12117,7 +12161,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>382</v>
       </c>
